--- a/final_results/1/github/github_languages.xlsx
+++ b/final_results/1/github/github_languages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,20 +503,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>none</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -549,29 +549,29 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>typescript</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -595,41 +595,41 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>javascript</t>
+          <t>python</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
+        <v>62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -641,29 +641,29 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>standard ml</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -687,23 +687,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>html</t>
+          <t>c++</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>typescript</t>
+          <t>rust</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -767,12 +767,1300 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>c#</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>shell</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>css</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>kotlin</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ruby</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>jupyter notebook</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>haskell</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>tex</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>jinja</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>standard ml</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>markdown</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>scss</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>vim script</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>scala</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>objective-c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>dart</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>cmake</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>blade</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>jsonnet</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>dockerfile</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/final_results/1/github/github_languages.xlsx
+++ b/final_results/1/github/github_languages.xlsx
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>

--- a/final_results/1/github/github_languages.xlsx
+++ b/final_results/1/github/github_languages.xlsx
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>

--- a/final_results/1/github/github_languages.xlsx
+++ b/final_results/1/github/github_languages.xlsx
@@ -8,13 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/1/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C80823-C836-2B4B-BEE8-26D4B0B42979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D6681-D6FD-3448-8718-AB28A3E631C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$4:$N$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$5:$N$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$6:$N$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$7:$N$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$N$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$N$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4:$N$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -265,6 +293,2918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>CI/Lenguajes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>typescript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>go</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Jenkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Travis</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Circle CI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GitHub Actions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure Pipelines</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bamboo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Concourse</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GitLab CI</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Codeship</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TeamCity</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bazel</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Semaphore CI</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AppVeyor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-42C9-D74D-A7E1-1A5F2D8C2AF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1446877407"/>
+        <c:axId val="1446790607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1446877407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446790607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1446790607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1446877407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTALES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>javascript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>typescript</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>c++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CAB-2942-B6F6-09E5BA72F1D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1558877631"/>
+        <c:axId val="1558542815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1558877631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558542815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1558542815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558877631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB01EC3-63C5-044A-92B3-27FE3332DC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD799AFD-9DCE-9543-AFDF-2E06E08E7216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +3495,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -648,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <f>SUM(B2:N2)</f>
+        <f t="shared" ref="O2:O35" si="0">SUM(B2:N2)</f>
         <v>121</v>
       </c>
     </row>
@@ -696,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>SUM(B3:N3)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
@@ -744,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f>SUM(B4:N4)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
@@ -792,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f>SUM(B5:N5)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -840,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f>SUM(B6:N6)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -888,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f>SUM(B7:N7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -936,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f>SUM(B8:N8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -984,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f>SUM(B9:N9)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -1032,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(B10:N10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1080,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f>SUM(B11:N11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1128,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>SUM(B12:N12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1176,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(B13:N13)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -1224,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>SUM(B14:N14)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1272,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>SUM(B15:N15)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1320,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f>SUM(B16:N16)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1368,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f>SUM(B17:N17)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1416,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f>SUM(B18:N18)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1464,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f>SUM(B19:N19)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1512,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f>SUM(B20:N20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1560,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f>SUM(B21:N21)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1608,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f>SUM(B22:N22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1656,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f>SUM(B23:N23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1704,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>SUM(B24:N24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1752,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f>SUM(B25:N25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1800,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f>SUM(B26:N26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1848,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f>SUM(B27:N27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f>SUM(B28:N28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1944,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f>SUM(B29:N29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1992,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f>SUM(B30:N30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2040,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f>SUM(B31:N31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2088,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f>SUM(B32:N32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2136,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f>SUM(B33:N33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2184,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>SUM(B34:N34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f>SUM(B35:N35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2245,51 +5185,51 @@
         <v>7</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:N36" si="0">SUM(C2:C35)</f>
+        <f t="shared" ref="C36:N36" si="1">SUM(C2:C35)</f>
         <v>129</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2298,5 +5238,6 @@
     <sortCondition descending="1" ref="O2:O35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_results/1/github/github_languages.xlsx
+++ b/final_results/1/github/github_languages.xlsx
@@ -1,48 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Desktop/tfg-ci/Pruebas_finales/1/results/github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D6681-D6FD-3448-8718-AB28A3E631C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140ABF78-61A8-D44C-B97B-AAC75CDE9D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$4:$N$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$5:$N$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$6:$N$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$B$7:$N$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$N$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$3:$N$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$4:$N$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Jenkins</t>
   </si>
@@ -78,9 +50,6 @@
   </si>
   <si>
     <t>Bamboo</t>
-  </si>
-  <si>
-    <t>Concourse</t>
   </si>
   <si>
     <t>GitLab CI</t>
@@ -455,9 +424,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -477,24 +446,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -502,10 +468,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$N$2</c:f>
+              <c:f>Sheet1!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -525,7 +491,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -540,9 +506,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -640,9 +603,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -662,24 +625,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -687,10 +647,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$N$3</c:f>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -710,24 +670,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,9 +782,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -847,24 +804,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -872,10 +826,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$N$4</c:f>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -898,21 +852,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1010,9 +961,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -1032,24 +983,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -1057,10 +1005,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$N$5</c:f>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1089,15 +1037,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1195,9 +1140,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -1217,24 +1162,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -1242,10 +1184,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$N$6</c:f>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1265,10 +1207,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1280,9 +1222,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1380,9 +1319,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$N$1</c:f>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Jenkins</c:v>
                 </c:pt>
@@ -1402,24 +1341,21 @@
                   <c:v>Bamboo</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Concourse</c:v>
+                  <c:v>GitLab CI</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GitLab CI</c:v>
+                  <c:v>Codeship</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Codeship</c:v>
+                  <c:v>TeamCity</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>TeamCity</c:v>
+                  <c:v>Bazel</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Bazel</c:v>
+                  <c:v>Semaphore CI</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Semaphore CI</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>AppVeyor</c:v>
                 </c:pt>
               </c:strCache>
@@ -1427,10 +1363,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$N$7</c:f>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1450,24 +1386,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1708,7 +1641,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1812,18 +1745,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>74</c:v>
@@ -3134,13 +3067,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3176,7 +3109,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3492,15 +3425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,16 +3470,13 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3567,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3585,16 +3515,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O35" si="0">SUM(B2:N2)</f>
-        <v>121</v>
+        <f>SUM(B2:M2)</f>
+        <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3615,34 +3542,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <f>SUM(B3:M3)</f>
+        <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3666,31 +3590,28 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f>SUM(B4:M4)</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3720,25 +3641,22 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:M5)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3759,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3777,16 +3695,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:M6)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3807,34 +3722,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:M7)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3873,16 +3785,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:M8)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3921,16 +3830,13 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:M9)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3969,16 +3875,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:M10)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4017,16 +3920,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:M11)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4065,16 +3965,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:M12)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -4113,16 +4010,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:M13)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4161,16 +4055,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:M14)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4209,16 +4100,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:M15)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4257,16 +4145,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:M16)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4305,16 +4190,13 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:M17)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4353,16 +4235,13 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:M18)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4401,16 +4280,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:M19)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4449,16 +4325,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:M20)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4497,16 +4370,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:M21)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4545,16 +4415,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:M22)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4593,16 +4460,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:M23)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4641,16 +4505,13 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:M24)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4689,16 +4550,13 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:M25)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4737,16 +4595,13 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:M26)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4785,16 +4640,13 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
+        <f>SUM(B27:M27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4833,16 +4685,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:M28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4881,16 +4730,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:M29)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4929,16 +4775,13 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:M30)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4977,16 +4820,13 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:M31)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5025,16 +4865,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:M32)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5073,16 +4910,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:M33)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5121,16 +4955,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:M34)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5169,73 +5000,66 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:M35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <f>SUM(B2:B35)</f>
         <v>7</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:N36" si="1">SUM(C2:C35)</f>
+        <f t="shared" ref="C36:M36" si="0">SUM(C2:C35)</f>
         <v>129</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O35">
-    <sortCondition descending="1" ref="O2:O35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N35">
+    <sortCondition descending="1" ref="N2:N35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
